--- a/data/trans_orig/P1_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26373</v>
+        <v>26147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51955</v>
+        <v>52055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07921678988538587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05566587771367017</v>
+        <v>0.0551875009742369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1096618633749258</v>
+        <v>0.1098715815238853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -765,19 +765,19 @@
         <v>28536</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20203</v>
+        <v>19702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40451</v>
+        <v>40733</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09304751246978339</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0658754235342333</v>
+        <v>0.06424386371393752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1318997030971445</v>
+        <v>0.132820627542829</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -786,19 +786,19 @@
         <v>66067</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50256</v>
+        <v>52102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84539</v>
+        <v>84092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08465157013024868</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06439311406327361</v>
+        <v>0.06675768863069095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1083197012818879</v>
+        <v>0.1077465365289934</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>436245</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421821</v>
+        <v>421721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447403</v>
+        <v>447629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9207832101146142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.890338136625074</v>
+        <v>0.8901284184761149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9443341222863297</v>
+        <v>0.9448124990257633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -836,19 +836,19 @@
         <v>278144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266229</v>
+        <v>265947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286477</v>
+        <v>286978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9069524875302166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8681002969028556</v>
+        <v>0.8671793724571711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9341245764657667</v>
+        <v>0.9357561362860626</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>691</v>
@@ -857,19 +857,19 @@
         <v>714390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>695918</v>
+        <v>696365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>730201</v>
+        <v>728355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9153484298697513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8916802987181122</v>
+        <v>0.8922534634710066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9356068859367264</v>
+        <v>0.933242311369309</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>45101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34390</v>
+        <v>33331</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59592</v>
+        <v>60431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1229140781514841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09372244012095733</v>
+        <v>0.0908356564934152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1624045908735434</v>
+        <v>0.1646913586624674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>27402</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18607</v>
+        <v>18793</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38685</v>
+        <v>40679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07368821444452732</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05003734754102961</v>
+        <v>0.05053587387596178</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1040300704297783</v>
+        <v>0.1093912355523409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -1003,19 +1003,19 @@
         <v>72503</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58261</v>
+        <v>57079</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91195</v>
+        <v>91861</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09813688022036478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07885918246453484</v>
+        <v>0.07725862254398011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1234368393059771</v>
+        <v>0.1243378644320283</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>321833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>307342</v>
+        <v>306503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332544</v>
+        <v>333603</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.877085921848516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8375954091264568</v>
+        <v>0.8353086413375327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9062775598790428</v>
+        <v>0.9091643435065847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -1053,19 +1053,19 @@
         <v>344463</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333180</v>
+        <v>331186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353258</v>
+        <v>353072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9263117855554727</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8959699295702218</v>
+        <v>0.8906087644476591</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9499626524589705</v>
+        <v>0.9494641261240382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -1074,19 +1074,19 @@
         <v>666296</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647604</v>
+        <v>646938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>680538</v>
+        <v>681720</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9018631197796352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8765631606940227</v>
+        <v>0.8756621355679715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9211408175354651</v>
+        <v>0.9227413774560198</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>30524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21053</v>
+        <v>20722</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44349</v>
+        <v>42651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05627706527782836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03881575075410465</v>
+        <v>0.03820571439503959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08176695732418547</v>
+        <v>0.07863459392515208</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>10877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5658</v>
+        <v>5936</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18488</v>
+        <v>19101</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06483035388479295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03372039632183223</v>
+        <v>0.03537756602889262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1101896552133211</v>
+        <v>0.1138426938224552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>41401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29388</v>
+        <v>30796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56010</v>
+        <v>55353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.058297827988366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04138092337828519</v>
+        <v>0.04336441167986235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07886799420880794</v>
+        <v>0.07794252779632606</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>511865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>498040</v>
+        <v>499738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>521336</v>
+        <v>521667</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9437229347221716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9182330426758145</v>
+        <v>0.9213654060748478</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9611842492458953</v>
+        <v>0.9617942856049602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -1270,19 +1270,19 @@
         <v>156905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149294</v>
+        <v>148681</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162124</v>
+        <v>161846</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.935169646115207</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8898103447866792</v>
+        <v>0.8861573061775438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9662796036781683</v>
+        <v>0.9646224339711071</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>655</v>
@@ -1291,19 +1291,19 @@
         <v>668770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>654161</v>
+        <v>654818</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680783</v>
+        <v>679375</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.941702172011634</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9211320057911914</v>
+        <v>0.922057472203674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9586190766217147</v>
+        <v>0.9566355883201375</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>82894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66579</v>
+        <v>67013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103188</v>
+        <v>103672</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06693987219772349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05376485745311503</v>
+        <v>0.05411518232599499</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08332810343149114</v>
+        <v>0.08371866312939594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1416,19 +1416,19 @@
         <v>51460</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38252</v>
+        <v>37678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66342</v>
+        <v>66561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07204466858141392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05355329217984488</v>
+        <v>0.05274916374211919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09287903248290194</v>
+        <v>0.09318559943528398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -1437,19 +1437,19 @@
         <v>134354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115560</v>
+        <v>112674</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159959</v>
+        <v>158135</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06880725124407698</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05918214835566355</v>
+        <v>0.05770381598164882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08192006345281257</v>
+        <v>0.08098580521016377</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1155440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135146</v>
+        <v>1134662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1171755</v>
+        <v>1171321</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9330601278022765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9166718965685088</v>
+        <v>0.9162813368706042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9462351425468849</v>
+        <v>0.9458848176740051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>643</v>
@@ -1487,19 +1487,19 @@
         <v>662825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>647943</v>
+        <v>647724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>676033</v>
+        <v>676607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9279553314185861</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.907120967517098</v>
+        <v>0.906814400564716</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9464467078201551</v>
+        <v>0.9472508362578809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1785</v>
@@ -1508,19 +1508,19 @@
         <v>1818266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1792661</v>
+        <v>1794485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1837060</v>
+        <v>1839946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9311927487559231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9180799365471874</v>
+        <v>0.9190141947898363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9408178516443365</v>
+        <v>0.9422961840183512</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>35492</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24933</v>
+        <v>25578</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49475</v>
+        <v>50308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1012447394916626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0711251751539454</v>
+        <v>0.0729647087182389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1411326292122254</v>
+        <v>0.1435104131038047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1633,19 +1633,19 @@
         <v>47415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35206</v>
+        <v>34662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62328</v>
+        <v>61290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08336678170048673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06190112348692513</v>
+        <v>0.06094454187423334</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1095873726479952</v>
+        <v>0.1077617838846635</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -1654,19 +1654,19 @@
         <v>82907</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65521</v>
+        <v>66689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101687</v>
+        <v>105721</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09018410340169676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07127212060957835</v>
+        <v>0.07254275660002821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1106131367217879</v>
+        <v>0.1150006840862139</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>315063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>301080</v>
+        <v>300247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>325622</v>
+        <v>324977</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8987552605083374</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8588673707877745</v>
+        <v>0.8564895868961953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9288748248460545</v>
+        <v>0.927035291281761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>495</v>
@@ -1704,19 +1704,19 @@
         <v>521337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>506424</v>
+        <v>507462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>533546</v>
+        <v>534090</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9166332182995133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8904126273520048</v>
+        <v>0.8922382161153365</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9380988765130749</v>
+        <v>0.9390554581257667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>801</v>
@@ -1725,19 +1725,19 @@
         <v>836400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>817620</v>
+        <v>813586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>853786</v>
+        <v>852618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9098158965983032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8893868632782118</v>
+        <v>0.884999315913786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9287278793904216</v>
+        <v>0.9274572433999714</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7106</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2823</v>
+        <v>2764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13928</v>
+        <v>14314</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02383123769294941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009466548596891769</v>
+        <v>0.009268344736784341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04670716428937736</v>
+        <v>0.04800258304816116</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -1850,19 +1850,19 @@
         <v>130441</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108968</v>
+        <v>110682</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>152794</v>
+        <v>153041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1044566701047634</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08726103273872689</v>
+        <v>0.08863356578788402</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1223564837580563</v>
+        <v>0.1225542196707765</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -1871,19 +1871,19 @@
         <v>137548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115983</v>
+        <v>115878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162047</v>
+        <v>162100</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08891487048481786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07497489907963088</v>
+        <v>0.07490710001906974</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1047519174968801</v>
+        <v>0.1047860544360979</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>291095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284273</v>
+        <v>283887</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295378</v>
+        <v>295437</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9761687623070506</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9532928357106226</v>
+        <v>0.951997416951839</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9905334514031083</v>
+        <v>0.9907316552632156</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1115</v>
@@ -1921,19 +1921,19 @@
         <v>1118319</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1095966</v>
+        <v>1095719</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1139792</v>
+        <v>1138078</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8955433298952366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8776435162419435</v>
+        <v>0.8774457803292229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.912738967261273</v>
+        <v>0.9113664342121158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1414</v>
@@ -1942,19 +1942,19 @@
         <v>1409412</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1384913</v>
+        <v>1384860</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1430977</v>
+        <v>1431082</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9110851295151822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8952480825031198</v>
+        <v>0.8952139455639013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9250251009203689</v>
+        <v>0.9250928999809301</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>238649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>210375</v>
+        <v>209433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>271154</v>
+        <v>271554</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07297704414838672</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06433120738864795</v>
+        <v>0.06404314753922385</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08291701044568588</v>
+        <v>0.08303929225761232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>284</v>
@@ -2067,19 +2067,19 @@
         <v>296132</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264958</v>
+        <v>263385</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>332819</v>
+        <v>332996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08766167345702246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07843346259437058</v>
+        <v>0.07796784466789343</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09852178337915836</v>
+        <v>0.09857435495895427</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>511</v>
@@ -2088,19 +2088,19 @@
         <v>534781</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>486477</v>
+        <v>492420</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>573105</v>
+        <v>584102</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08043855978330841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07317302349838892</v>
+        <v>0.07406686873122006</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08620311410453878</v>
+        <v>0.08785717949130303</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3031541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2999036</v>
+        <v>2998636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3059815</v>
+        <v>3060757</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9270229558516133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9170829895543139</v>
+        <v>0.9169607077423878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9356687926113519</v>
+        <v>0.9359568524607762</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3012</v>
@@ -2138,19 +2138,19 @@
         <v>3081992</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3045305</v>
+        <v>3045128</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3113166</v>
+        <v>3114739</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9123383265429775</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9014782166208416</v>
+        <v>0.9014256450410457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9215665374056294</v>
+        <v>0.9220321553321066</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5992</v>
@@ -2159,19 +2159,19 @@
         <v>6113533</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6075209</v>
+        <v>6064212</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6161837</v>
+        <v>6155894</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9195614402166916</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9137968858954614</v>
+        <v>0.9121428205086971</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9268269765016114</v>
+        <v>0.92593313126878</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>49040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35823</v>
+        <v>37277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62925</v>
+        <v>65754</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1121656251244724</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08193497457621793</v>
+        <v>0.08526098152971395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.143922855393942</v>
+        <v>0.1503946240662835</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2526,19 +2526,19 @@
         <v>40717</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29647</v>
+        <v>29517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56073</v>
+        <v>54730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1294841392762004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09428075317222141</v>
+        <v>0.09386893929787625</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1783179065409736</v>
+        <v>0.1740478177998621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -2547,19 +2547,19 @@
         <v>89757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73072</v>
+        <v>74079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111632</v>
+        <v>111442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1194107146365402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09721342682239451</v>
+        <v>0.09855299021151658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1485131442735227</v>
+        <v>0.148259538828811</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>388171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374286</v>
+        <v>371457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401388</v>
+        <v>399934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8878343748755276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.856077144606058</v>
+        <v>0.8496053759337165</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9180650254237822</v>
+        <v>0.914739018470286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -2597,19 +2597,19 @@
         <v>273737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258381</v>
+        <v>259724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284807</v>
+        <v>284937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8705158607237996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8216820934590258</v>
+        <v>0.8259521822001379</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9057192468277785</v>
+        <v>0.9061310607021237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>606</v>
@@ -2618,19 +2618,19 @@
         <v>661908</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>640033</v>
+        <v>640223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>678593</v>
+        <v>677586</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8805892853634598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8514868557264772</v>
+        <v>0.851740461171189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9027865731776055</v>
+        <v>0.9014470097884834</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>36873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25416</v>
+        <v>25199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51166</v>
+        <v>50093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08804443393468736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0606890786530511</v>
+        <v>0.06017015627341533</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1221741118955707</v>
+        <v>0.1196108596051444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -2743,19 +2743,19 @@
         <v>26251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17442</v>
+        <v>17083</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37962</v>
+        <v>38074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07766317043515542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05160207107526128</v>
+        <v>0.0505404847948145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1123098466049876</v>
+        <v>0.1126413528232273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -2764,19 +2764,19 @@
         <v>63124</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49489</v>
+        <v>47116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82563</v>
+        <v>79690</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08340787879961979</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06539119813282493</v>
+        <v>0.06225647571225253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.109093089058012</v>
+        <v>0.10529761000904</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>381924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>367631</v>
+        <v>368704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>393381</v>
+        <v>393598</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9119555660653126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8778258881044293</v>
+        <v>0.8803891403948556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9393109213469489</v>
+        <v>0.9398298437265847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -2814,19 +2814,19 @@
         <v>311760</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300049</v>
+        <v>299937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320569</v>
+        <v>320928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9223368295648446</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8876901533950124</v>
+        <v>0.8873586471767727</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9483979289247387</v>
+        <v>0.9494595152051855</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>623</v>
@@ -2835,19 +2835,19 @@
         <v>693684</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>674245</v>
+        <v>677118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>707319</v>
+        <v>709692</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9165921212003802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.890906910941988</v>
+        <v>0.8947023899909611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9346088018671753</v>
+        <v>0.9377435242877474</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>50330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38216</v>
+        <v>37175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68608</v>
+        <v>67630</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07996347445796803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06071614584778075</v>
+        <v>0.05906216900188598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1090028394637225</v>
+        <v>0.107449298291777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -2960,19 +2960,19 @@
         <v>29191</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19375</v>
+        <v>19341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40919</v>
+        <v>40622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1122163700876288</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07448288987282385</v>
+        <v>0.07435344004803379</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1573011336109333</v>
+        <v>0.156159650263495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -2981,19 +2981,19 @@
         <v>79521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62565</v>
+        <v>63546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99291</v>
+        <v>98929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08939518891014361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07033350436964582</v>
+        <v>0.07143685558347883</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1116197474269449</v>
+        <v>0.1112136612432059</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>579085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560807</v>
+        <v>561785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>591199</v>
+        <v>592240</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.920036525542032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8909971605362775</v>
+        <v>0.892550701708223</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9392838541522193</v>
+        <v>0.940937830998114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -3031,19 +3031,19 @@
         <v>230938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219210</v>
+        <v>219507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240754</v>
+        <v>240788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8877836299123711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8426988663890667</v>
+        <v>0.8438403497365048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9255171101271762</v>
+        <v>0.9256465599519661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>765</v>
@@ -3052,19 +3052,19 @@
         <v>810023</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>790253</v>
+        <v>790615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>826979</v>
+        <v>825998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9106048110898564</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8883802525730548</v>
+        <v>0.8887863387567941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9296664956303542</v>
+        <v>0.9285631444165211</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>100852</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83517</v>
+        <v>82315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121910</v>
+        <v>120862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08701598596538966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07205902929659092</v>
+        <v>0.07102215926614648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1051848504309146</v>
+        <v>0.1042806267293167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3177,19 +3177,19 @@
         <v>41463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29560</v>
+        <v>30047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58641</v>
+        <v>56185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05408322659969524</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03855728385753357</v>
+        <v>0.03919252778279547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0764892279595394</v>
+        <v>0.07328552323536615</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -3198,19 +3198,19 @@
         <v>142316</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>120098</v>
+        <v>117795</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167653</v>
+        <v>167054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0739046073606434</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06236714737386491</v>
+        <v>0.06117086439401472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08706253892318533</v>
+        <v>0.08675104684602553</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1058157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1037099</v>
+        <v>1038147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1075492</v>
+        <v>1076694</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9129840140346104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8948151495690854</v>
+        <v>0.8957193732706834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9279409707034092</v>
+        <v>0.9289778407338536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>674</v>
@@ -3248,19 +3248,19 @@
         <v>725194</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>708016</v>
+        <v>710472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>737097</v>
+        <v>736610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9459167734003048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9235107720404607</v>
+        <v>0.9267144767646338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9614427161424665</v>
+        <v>0.9608074722172045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1663</v>
@@ -3269,19 +3269,19 @@
         <v>1783351</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1758014</v>
+        <v>1758613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1805569</v>
+        <v>1807872</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9260953926393566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9129374610768147</v>
+        <v>0.9132489531539743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9376328526261349</v>
+        <v>0.9388291356059854</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>40466</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29480</v>
+        <v>29700</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54011</v>
+        <v>52973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0792516966636249</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05773580191475235</v>
+        <v>0.05816695431930199</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1057799074725344</v>
+        <v>0.1037483027400891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -3394,19 +3394,19 @@
         <v>80239</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63815</v>
+        <v>65435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98963</v>
+        <v>99692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1053666483302906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.083799040653063</v>
+        <v>0.08592616111064376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1299540157641776</v>
+        <v>0.1309119609366115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -3415,19 +3415,19 @@
         <v>120705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98786</v>
+        <v>101457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143311</v>
+        <v>142242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09488476112647387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07765498092450934</v>
+        <v>0.07975453616570193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1126553703201894</v>
+        <v>0.1118153864403652</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>470130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456585</v>
+        <v>457623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>481116</v>
+        <v>480896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9207483033363751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8942200925274656</v>
+        <v>0.8962516972599108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9422641980852476</v>
+        <v>0.9418330456806979</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>629</v>
@@ -3465,19 +3465,19 @@
         <v>681283</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>662559</v>
+        <v>661830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>697707</v>
+        <v>696087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8946333516697094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8700459842358226</v>
+        <v>0.8690880390633888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.916200959346937</v>
+        <v>0.9140738388893563</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1078</v>
@@ -3486,19 +3486,19 @@
         <v>1151413</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1128807</v>
+        <v>1129876</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1173332</v>
+        <v>1170661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9051152388735262</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8873446296798105</v>
+        <v>0.8881846135596347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9223450190754906</v>
+        <v>0.9202454638342981</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>7505</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3160</v>
+        <v>3224</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14803</v>
+        <v>14308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02812181599339648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01183916109560668</v>
+        <v>0.01207964113881583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0554657374201129</v>
+        <v>0.05361125415168717</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -3611,19 +3611,19 @@
         <v>136226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116899</v>
+        <v>113415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>159755</v>
+        <v>158926</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1227978019763718</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1053763844407337</v>
+        <v>0.1022351034442014</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1440072257736838</v>
+        <v>0.1432606797745183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -3632,19 +3632,19 @@
         <v>143731</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123061</v>
+        <v>121147</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167054</v>
+        <v>168949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1044380430078449</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08941851341579626</v>
+        <v>0.08802763146241215</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.12138463896257</v>
+        <v>0.1227619249442285</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>259377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252079</v>
+        <v>252574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263722</v>
+        <v>263658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9718781840066035</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9445342625798869</v>
+        <v>0.9463887458483151</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9881608389043933</v>
+        <v>0.9879203588611842</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>918</v>
@@ -3682,19 +3682,19 @@
         <v>973125</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>949596</v>
+        <v>950425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>992452</v>
+        <v>995936</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8772021980236282</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8559927742263161</v>
+        <v>0.8567393202254817</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8946236155592663</v>
+        <v>0.8977648965557986</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1176</v>
@@ -3703,19 +3703,19 @@
         <v>1232502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1209179</v>
+        <v>1207284</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1253172</v>
+        <v>1255086</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8955619569921551</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8786153610374299</v>
+        <v>0.8772380750557713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9105814865842037</v>
+        <v>0.9119723685375879</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>285066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>247550</v>
+        <v>251112</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316766</v>
+        <v>321877</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08330613840555996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.072342615095857</v>
+        <v>0.07338354824105203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0925700532192192</v>
+        <v>0.09406354510239288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>324</v>
@@ -3828,19 +3828,19 @@
         <v>354087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>317629</v>
+        <v>317176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>393229</v>
+        <v>393448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0997392509053702</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08946973450553902</v>
+        <v>0.08934222759950777</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1107647480525717</v>
+        <v>0.1108264388900277</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>584</v>
@@ -3849,19 +3849,19 @@
         <v>639153</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>590624</v>
+        <v>591863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>695466</v>
+        <v>690707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09167379662334349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08471333800572385</v>
+        <v>0.08489104897676984</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09975074300690634</v>
+        <v>0.09906822520931763</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3136844</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3105144</v>
+        <v>3100033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3174360</v>
+        <v>3170798</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.91669386159444</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9074299467807808</v>
+        <v>0.9059364548976071</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9276573849041432</v>
+        <v>0.926616451758948</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2966</v>
@@ -3899,19 +3899,19 @@
         <v>3196038</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3156896</v>
+        <v>3156677</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3232496</v>
+        <v>3232949</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9002607490946298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8892352519474284</v>
+        <v>0.8891735611099723</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.910530265494461</v>
+        <v>0.9106577724004923</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5911</v>
@@ -3920,19 +3920,19 @@
         <v>6332882</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6276569</v>
+        <v>6281328</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6381411</v>
+        <v>6380172</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9083262033766565</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9002492569930934</v>
+        <v>0.9009317747906823</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9152866619942757</v>
+        <v>0.9151089510232302</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>92630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74520</v>
+        <v>75565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109766</v>
+        <v>112171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2158735740706925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1736693360150589</v>
+        <v>0.1761038441769756</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2558093931217826</v>
+        <v>0.2614137019720218</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -4287,19 +4287,19 @@
         <v>49692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37630</v>
+        <v>36863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64517</v>
+        <v>64177</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1431808581232236</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1084279347503836</v>
+        <v>0.1062155745611893</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1858998434859958</v>
+        <v>0.1849187579237756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -4308,19 +4308,19 @@
         <v>142321</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121127</v>
+        <v>120451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168935</v>
+        <v>167973</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1833689500272273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1560624189140815</v>
+        <v>0.1551914646168757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2176586363536118</v>
+        <v>0.2164195796266577</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>336462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>319326</v>
+        <v>316921</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354572</v>
+        <v>353527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7841264259293075</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7441906068782174</v>
+        <v>0.7385862980279781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8263306639849411</v>
+        <v>0.8238961558230244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -4358,19 +4358,19 @@
         <v>297363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282538</v>
+        <v>282878</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309425</v>
+        <v>310192</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8568191418767764</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8141001565140039</v>
+        <v>0.8150812420762245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8915720652496162</v>
+        <v>0.8937844254388108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>606</v>
@@ -4379,19 +4379,19 @@
         <v>633826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607212</v>
+        <v>608174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>655020</v>
+        <v>655696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8166310499727727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7823413636463877</v>
+        <v>0.7835804203733421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8439375810859181</v>
+        <v>0.8448085353831242</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>37922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27486</v>
+        <v>26076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51788</v>
+        <v>50857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1005295781758936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07286266654752145</v>
+        <v>0.06912626804875457</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1372855380599029</v>
+        <v>0.1348169456041324</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -4504,19 +4504,19 @@
         <v>47433</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35641</v>
+        <v>34893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62459</v>
+        <v>63058</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.12741380210385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09573959202584059</v>
+        <v>0.09373066330442195</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1677773305005295</v>
+        <v>0.1693857129456735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -4525,19 +4525,19 @@
         <v>85355</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69226</v>
+        <v>68507</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107044</v>
+        <v>104217</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1138828462123873</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09236300901025056</v>
+        <v>0.09140328703092046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1428205686282292</v>
+        <v>0.1390482509024748</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>339305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325439</v>
+        <v>326370</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349741</v>
+        <v>351151</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8994704218241064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.862714461940097</v>
+        <v>0.8651830543958673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9271373334524786</v>
+        <v>0.9308737319512452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>310</v>
@@ -4575,19 +4575,19 @@
         <v>324840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>309814</v>
+        <v>309215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336632</v>
+        <v>337380</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.87258619789615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8322226694994705</v>
+        <v>0.8306142870543262</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9042604079741591</v>
+        <v>0.906269336695578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>628</v>
@@ -4596,19 +4596,19 @@
         <v>664145</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642456</v>
+        <v>645283</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>680274</v>
+        <v>680993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8861171537876127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8571794313717708</v>
+        <v>0.8609517490975251</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9076369909897494</v>
+        <v>0.9085967129690795</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>55602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43212</v>
+        <v>43224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70983</v>
+        <v>71932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1065340991686601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0827951704901054</v>
+        <v>0.08281793829755109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1360049855354156</v>
+        <v>0.1378227411726996</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -4721,19 +4721,19 @@
         <v>27810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18022</v>
+        <v>18595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38918</v>
+        <v>38626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1674035824396728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1084852406929112</v>
+        <v>0.1119353085789328</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2342694161289144</v>
+        <v>0.2325160018469936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -4742,19 +4742,19 @@
         <v>83411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68229</v>
+        <v>66653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102365</v>
+        <v>102339</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1212307167499675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09916435959666878</v>
+        <v>0.09687386713591981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1487780359607355</v>
+        <v>0.1487404290115543</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>466312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450931</v>
+        <v>449982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>478702</v>
+        <v>478690</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8934659008313398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8639950144645845</v>
+        <v>0.8621772588273005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9172048295098946</v>
+        <v>0.9171820617024489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -4792,19 +4792,19 @@
         <v>138313</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127205</v>
+        <v>127497</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148101</v>
+        <v>147528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8325964175603271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7657305838710855</v>
+        <v>0.7674839981530065</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8915147593070888</v>
+        <v>0.8880646914210673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>576</v>
@@ -4813,19 +4813,19 @@
         <v>604625</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>585671</v>
+        <v>585697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>619807</v>
+        <v>621383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8787692832500326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8512219640392645</v>
+        <v>0.8512595709884456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9008356404033312</v>
+        <v>0.9031261328640803</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>119947</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99116</v>
+        <v>98553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141143</v>
+        <v>142628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.10433434397627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08621469315146642</v>
+        <v>0.08572489930793645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1227719362256362</v>
+        <v>0.1240637359736329</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -4938,19 +4938,19 @@
         <v>106795</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89339</v>
+        <v>88492</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127101</v>
+        <v>129837</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1293111803524702</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.108175307134093</v>
+        <v>0.1071489352416432</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1538980079740396</v>
+        <v>0.157211779212011</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>214</v>
@@ -4959,19 +4959,19 @@
         <v>226742</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198637</v>
+        <v>199280</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>257288</v>
+        <v>259834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.114776063846613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1005493403092748</v>
+        <v>0.100875114253921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1302386363439902</v>
+        <v>0.1315273040700426</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1029691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1008495</v>
+        <v>1007010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1050522</v>
+        <v>1051085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8956656560237301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.877228063774364</v>
+        <v>0.875936264026367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9137853068485338</v>
+        <v>0.9142751006920634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>700</v>
@@ -5009,19 +5009,19 @@
         <v>719081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>698775</v>
+        <v>696039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>736537</v>
+        <v>737384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8706888196475298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8461019920259607</v>
+        <v>0.842788220787989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.891824692865907</v>
+        <v>0.8928510647583568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1687</v>
@@ -5030,19 +5030,19 @@
         <v>1748772</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1718226</v>
+        <v>1715680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1776877</v>
+        <v>1776234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.885223936153387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8697613636560098</v>
+        <v>0.8684726959299574</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8994506596907251</v>
+        <v>0.8991248857460789</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>92887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76311</v>
+        <v>76795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112959</v>
+        <v>111806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1496479131428058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1229430169588347</v>
+        <v>0.1237212886613408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1819843267388636</v>
+        <v>0.1801278700760798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -5155,19 +5155,19 @@
         <v>84521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67256</v>
+        <v>68515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102781</v>
+        <v>103276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1144886649359148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09110293305904998</v>
+        <v>0.09280814919148669</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1392236850667131</v>
+        <v>0.1398938521037456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>168</v>
@@ -5176,19 +5176,19 @@
         <v>177408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>153550</v>
+        <v>156609</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204977</v>
+        <v>204866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1305477929089563</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1129914179217592</v>
+        <v>0.11524272063933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1508348819890981</v>
+        <v>0.1507528973374473</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>527819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>507747</v>
+        <v>508900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>544395</v>
+        <v>543911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8503520868571942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8180156732611369</v>
+        <v>0.8198721299239204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8770569830411653</v>
+        <v>0.8762787113386593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>625</v>
@@ -5226,19 +5226,19 @@
         <v>653723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>635463</v>
+        <v>634968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>670988</v>
+        <v>669729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8855113350640852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8607763149332869</v>
+        <v>0.8601061478962554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.90889706694095</v>
+        <v>0.9071918508085133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1128</v>
@@ -5247,19 +5247,19 @@
         <v>1181542</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1153973</v>
+        <v>1154084</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1205400</v>
+        <v>1202341</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8694522070910436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.849165118010902</v>
+        <v>0.8492471026625528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8870085820782408</v>
+        <v>0.8847572793606706</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>24136</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15236</v>
+        <v>15876</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35319</v>
+        <v>34886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08405470049765476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05305933537186983</v>
+        <v>0.05528799699245505</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1229999584771722</v>
+        <v>0.1214914993904851</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -5372,19 +5372,19 @@
         <v>151748</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>128591</v>
+        <v>127160</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>175793</v>
+        <v>176440</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1402447208124569</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1188430991499664</v>
+        <v>0.117520682526048</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1624662852566461</v>
+        <v>0.1630643020761722</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -5393,19 +5393,19 @@
         <v>175884</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>150169</v>
+        <v>151508</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202736</v>
+        <v>205371</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1284604342209887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1096787461312503</v>
+        <v>0.1106569690628685</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1480722928305633</v>
+        <v>0.1499963989407915</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>263009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251826</v>
+        <v>252259</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271909</v>
+        <v>271269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9159452995023453</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8770000415228276</v>
+        <v>0.878508500609515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9469406646281301</v>
+        <v>0.9447120030075453</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>863</v>
@@ -5443,19 +5443,19 @@
         <v>930277</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>906232</v>
+        <v>905585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>953434</v>
+        <v>954865</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8597552791875431</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8375337147433533</v>
+        <v>0.8369356979238275</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8811569008500335</v>
+        <v>0.8824793174739513</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1113</v>
@@ -5464,19 +5464,19 @@
         <v>1193286</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1166434</v>
+        <v>1163799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1219001</v>
+        <v>1217662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8715395657790113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8519277071694366</v>
+        <v>0.850003601059208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8903212538687492</v>
+        <v>0.8893430309371311</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>423124</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>383018</v>
+        <v>385288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>463298</v>
+        <v>464716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1249729625685726</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1131274166677695</v>
+        <v>0.1137979443717047</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.136838767483889</v>
+        <v>0.1372575218126337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>409</v>
@@ -5589,19 +5589,19 @@
         <v>467998</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>428571</v>
+        <v>422188</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>511225</v>
+        <v>509293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1325173625340104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1213534290918653</v>
+        <v>0.1195459128413679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1447573720136746</v>
+        <v>0.1442104567789735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>812</v>
@@ -5610,19 +5610,19 @@
         <v>891121</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>830616</v>
+        <v>828583</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>946670</v>
+        <v>950147</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1288247114113157</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1200778025367256</v>
+        <v>0.1197837851665873</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1368551314402171</v>
+        <v>0.137357781138445</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2962598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2922424</v>
+        <v>2921006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3002704</v>
+        <v>3000434</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8750270374314274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8631612325161111</v>
+        <v>0.8627424781873663</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8868725833322306</v>
+        <v>0.8862020556282953</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2917</v>
@@ -5660,19 +5660,19 @@
         <v>3063598</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3020371</v>
+        <v>3022303</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3103025</v>
+        <v>3109408</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8674826374659896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8552426279863254</v>
+        <v>0.8557895432210265</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8786465709081348</v>
+        <v>0.8804540871586322</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5738</v>
@@ -5681,19 +5681,19 @@
         <v>6026197</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5970648</v>
+        <v>5967171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6086702</v>
+        <v>6088735</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8711752885886843</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8631448685597828</v>
+        <v>0.8626422188615549</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8799221974632743</v>
+        <v>0.8802162148334126</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>94973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77476</v>
+        <v>76681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115731</v>
+        <v>114215</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1724839546625066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.140707036075518</v>
+        <v>0.1392629882109562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2101842768990492</v>
+        <v>0.2074298767126785</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>130</v>
@@ -6048,19 +6048,19 @@
         <v>83202</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70522</v>
+        <v>69257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96233</v>
+        <v>96986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1703517371079122</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1443912788554551</v>
+        <v>0.1418002827133136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.19703292929356</v>
+        <v>0.1985737643138361</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>223</v>
@@ -6069,19 +6069,19 @@
         <v>178174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157043</v>
+        <v>155994</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>201746</v>
+        <v>202630</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1714816745411321</v>
+        <v>0.171481674541132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1511443007956977</v>
+        <v>0.1501348243042962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1941681002063388</v>
+        <v>0.1950186005627609</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>455645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>434887</v>
+        <v>436403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>473142</v>
+        <v>473937</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8275160453374935</v>
+        <v>0.8275160453374933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7898157231009508</v>
+        <v>0.7925701232873213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.859292963924482</v>
+        <v>0.8607370117890439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>556</v>
@@ -6119,19 +6119,19 @@
         <v>405209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>392178</v>
+        <v>391425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>417889</v>
+        <v>419154</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8296482628920879</v>
+        <v>0.8296482628920878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8029670707064399</v>
+        <v>0.8014262356861638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8556087211445449</v>
+        <v>0.8581997172866864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1017</v>
@@ -6140,19 +6140,19 @@
         <v>860855</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>837283</v>
+        <v>836399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>881986</v>
+        <v>883035</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8285183254588681</v>
+        <v>0.8285183254588679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8058318997936611</v>
+        <v>0.8049813994372392</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8488556992043019</v>
+        <v>0.8498651756957037</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>88795</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74142</v>
+        <v>73203</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105175</v>
+        <v>106825</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1837596786287687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1534366597699345</v>
+        <v>0.1514926721335439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2176575586264845</v>
+        <v>0.2210722380773465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -6265,19 +6265,19 @@
         <v>60980</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50120</v>
+        <v>50532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73424</v>
+        <v>72945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1441128540189483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1184464079340757</v>
+        <v>0.1194195226180875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1735194976709039</v>
+        <v>0.1723892376210487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -6286,19 +6286,19 @@
         <v>149775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129522</v>
+        <v>128766</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171928</v>
+        <v>170818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1652500764276672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1429044703419664</v>
+        <v>0.1420699864424077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.189691819349936</v>
+        <v>0.1884672760752452</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>394417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378037</v>
+        <v>376387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409070</v>
+        <v>410009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8162403213712313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7823424413735156</v>
+        <v>0.7789277619226536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8465633402300654</v>
+        <v>0.8485073278664561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -6336,19 +6336,19 @@
         <v>362163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349719</v>
+        <v>350198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>373023</v>
+        <v>372611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8558871459810516</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.826480502329096</v>
+        <v>0.8276107623789513</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8815535920659243</v>
+        <v>0.8805804773819121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -6357,19 +6357,19 @@
         <v>756580</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734427</v>
+        <v>735537</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>776833</v>
+        <v>777589</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8347499235723329</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8103081806500639</v>
+        <v>0.8115327239247548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8570955296580335</v>
+        <v>0.8579300135575921</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>85167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68632</v>
+        <v>69905</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105639</v>
+        <v>101426</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1805866441939183</v>
+        <v>0.1805866441939182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1455264817999314</v>
+        <v>0.1482255147669091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2239951193024017</v>
+        <v>0.2150615682208269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -6482,19 +6482,19 @@
         <v>38932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30507</v>
+        <v>30329</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48883</v>
+        <v>48381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2076408664788864</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1627081052362818</v>
+        <v>0.1617587337352148</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2607138668564631</v>
+        <v>0.2580360895651796</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -6503,19 +6503,19 @@
         <v>124099</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105499</v>
+        <v>105739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143066</v>
+        <v>143726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1882827812895523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1600637091322068</v>
+        <v>0.1604277281865901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2170593543698043</v>
+        <v>0.2180615540169986</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>386445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>365973</v>
+        <v>370186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>402980</v>
+        <v>401707</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8194133558060819</v>
+        <v>0.8194133558060818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7760048806975981</v>
+        <v>0.784938431779173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8544735182000686</v>
+        <v>0.8517744852330909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -6553,19 +6553,19 @@
         <v>148565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138614</v>
+        <v>139116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156990</v>
+        <v>157168</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7923591335211136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7392861331435366</v>
+        <v>0.7419639104348206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8372918947637185</v>
+        <v>0.8382412662647855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -6574,19 +6574,19 @@
         <v>535010</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516043</v>
+        <v>515383</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>553610</v>
+        <v>553370</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8117172187104477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7829406456301958</v>
+        <v>0.7819384459830014</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8399362908677933</v>
+        <v>0.8395722718134099</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>220025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194341</v>
+        <v>193348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>246937</v>
+        <v>247452</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1943953991653531</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1717031035211861</v>
+        <v>0.170826042400934</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2181725154330331</v>
+        <v>0.2186276482859618</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>201</v>
@@ -6699,19 +6699,19 @@
         <v>123241</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106570</v>
+        <v>107947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140315</v>
+        <v>141894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1431018905397557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1237442481367884</v>
+        <v>0.1253429147096208</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1629272030265865</v>
+        <v>0.164760523041473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>439</v>
@@ -6720,19 +6720,19 @@
         <v>343266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311504</v>
+        <v>312356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>375520</v>
+        <v>373893</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1722311472900194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1562946359088093</v>
+        <v>0.1567221913269605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.188414514312626</v>
+        <v>0.1875978466396086</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>911818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>884906</v>
+        <v>884391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937502</v>
+        <v>938495</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8056046008346468</v>
+        <v>0.8056046008346467</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7818274845669668</v>
+        <v>0.7813723517140376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8282968964788138</v>
+        <v>0.8291739575990659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1029</v>
@@ -6770,19 +6770,19 @@
         <v>737970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>720896</v>
+        <v>719317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>754641</v>
+        <v>753264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8568981094602443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8370727969734133</v>
+        <v>0.8352394769585268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8762557518632114</v>
+        <v>0.8746570852903792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1909</v>
@@ -6791,19 +6791,19 @@
         <v>1649788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1617534</v>
+        <v>1619161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1681550</v>
+        <v>1680698</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8277688527099806</v>
+        <v>0.8277688527099808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8115854856873741</v>
+        <v>0.8124021533603916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8437053640911907</v>
+        <v>0.8432778086730395</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>140943</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118760</v>
+        <v>121001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166679</v>
+        <v>165942</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2481556836935155</v>
+        <v>0.2481556836935154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.209098122868776</v>
+        <v>0.2130434100306365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2934676513076974</v>
+        <v>0.2921705744811244</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -6916,19 +6916,19 @@
         <v>168407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151330</v>
+        <v>151011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186158</v>
+        <v>186980</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.202691832886261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1821382952103525</v>
+        <v>0.181754932373333</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2240578560331214</v>
+        <v>0.2250471581947756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>458</v>
@@ -6937,19 +6937,19 @@
         <v>309350</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>280692</v>
+        <v>280944</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>338430</v>
+        <v>341509</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2211516275494681</v>
+        <v>0.221151627549468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2006639204852138</v>
+        <v>0.2008441989988909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2419410136323537</v>
+        <v>0.2441418515527339</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>427021</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401285</v>
+        <v>402022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>449204</v>
+        <v>446963</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7518443163064845</v>
+        <v>0.7518443163064844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7065323486923029</v>
+        <v>0.7078294255188756</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7909018771312241</v>
+        <v>0.7869565899693636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>973</v>
@@ -6987,19 +6987,19 @@
         <v>662443</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>644692</v>
+        <v>643870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>679520</v>
+        <v>679839</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7973081671137391</v>
+        <v>0.797308167113739</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7759421439668786</v>
+        <v>0.7749528418052243</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8178617047896476</v>
+        <v>0.8182450676266669</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1379</v>
@@ -7008,19 +7008,19 @@
         <v>1089464</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1060384</v>
+        <v>1057305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1118122</v>
+        <v>1117870</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.778848372450532</v>
+        <v>0.7788483724505317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7580589863676462</v>
+        <v>0.7558581484472662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7993360795147861</v>
+        <v>0.7991558010011089</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10284</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4600</v>
+        <v>4568</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20879</v>
+        <v>22269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04335119141126501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0193912805419579</v>
+        <v>0.01925382991147954</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08801073519497508</v>
+        <v>0.09387017058295212</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>294</v>
@@ -7133,19 +7133,19 @@
         <v>169062</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>149611</v>
+        <v>150425</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>188711</v>
+        <v>191035</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2002436423452584</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1772057507550198</v>
+        <v>0.1781687757145776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2235166254633656</v>
+        <v>0.2262691814510847</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>303</v>
@@ -7154,19 +7154,19 @@
         <v>179346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>158740</v>
+        <v>156240</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201511</v>
+        <v>203704</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1658294563312041</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1467767121664742</v>
+        <v>0.1444651892372179</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.186324093511589</v>
+        <v>0.1883513688444069</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>226944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216349</v>
+        <v>214959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232628</v>
+        <v>232660</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.956648808588735</v>
+        <v>0.9566488085887349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9119892648050251</v>
+        <v>0.9061298294170479</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9806087194580424</v>
+        <v>0.9807461700885207</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>865</v>
@@ -7204,19 +7204,19 @@
         <v>675219</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>655570</v>
+        <v>653246</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>694670</v>
+        <v>693856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7997563576547415</v>
+        <v>0.7997563576547416</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7764833745366343</v>
+        <v>0.7737308185489149</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8227942492449799</v>
+        <v>0.8218312242854218</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>968</v>
@@ -7225,19 +7225,19 @@
         <v>902163</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>879998</v>
+        <v>877805</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>922769</v>
+        <v>925269</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8341705436687961</v>
+        <v>0.8341705436687959</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8136759064884111</v>
+        <v>0.8116486311555933</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8532232878335257</v>
+        <v>0.8555348107627826</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>640187</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>597036</v>
+        <v>597150</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>695057</v>
+        <v>695012</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1859670177987395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1734322356332539</v>
+        <v>0.173465219339359</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2019062692937295</v>
+        <v>0.20189291539447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1105</v>
@@ -7350,19 +7350,19 @@
         <v>643823</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>608498</v>
+        <v>607954</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>681108</v>
+        <v>681923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1770987015187313</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1673815634768124</v>
+        <v>0.1672319013512709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1873545931884343</v>
+        <v>0.1875788658396784</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1781</v>
@@ -7371,19 +7371,19 @@
         <v>1284010</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1217038</v>
+        <v>1226468</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1343995</v>
+        <v>1340966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1814120005018043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1719497486861943</v>
+        <v>0.1732821283029808</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1898869468049155</v>
+        <v>0.189458999199272</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2802289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2747419</v>
+        <v>2747464</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2845440</v>
+        <v>2845326</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8140329822012605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7980937307062694</v>
+        <v>0.7981070846055294</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8265677643667459</v>
+        <v>0.8265347806606408</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4139</v>
@@ -7421,19 +7421,19 @@
         <v>2991570</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2954285</v>
+        <v>2953470</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3026895</v>
+        <v>3027439</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8229012984812688</v>
+        <v>0.8229012984812686</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8126454068115652</v>
+        <v>0.8124211341603214</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8326184365231875</v>
+        <v>0.832768098648729</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6763</v>
@@ -7442,19 +7442,19 @@
         <v>5793859</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5733874</v>
+        <v>5736903</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5860831</v>
+        <v>5851401</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8185879994981957</v>
+        <v>0.8185879994981955</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8101130531950844</v>
+        <v>0.8105410008007281</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8280502513138059</v>
+        <v>0.8267178716970192</v>
       </c>
     </row>
     <row r="24">
